--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -448,10 +448,10 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -463,13 +463,13 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41505.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.15</v>
+        <v>1.51</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.38</v>
+        <v>3.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>35.8</v>
+        <v>3.58</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>173.46</v>
+        <v>17.35</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.93</v>
+        <v>3.29</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.16</v>
+        <v>3.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41505.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.02</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.46</v>
+        <v>5.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>212.43</v>
+        <v>21.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.37</v>
+        <v>4.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.77</v>
+        <v>2.68</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.87</v>
+        <v>2.69</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.85</v>
+        <v>4.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41505.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>65.95999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41505.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.13</v>
+        <v>2.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.35</v>
+        <v>5.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.03</v>
+        <v>4.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.06</v>
+        <v>6.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.76</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>268.5</v>
+        <v>26.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.59</v>
+        <v>5.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.98</v>
+        <v>3.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.15</v>
+        <v>3.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.87</v>
+        <v>6.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41505.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>33.85</v>
+        <v>3.38</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.5</v>
+        <v>2.75</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>49.54</v>
+        <v>4.95</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.85</v>
+        <v>1.88</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>178.1</v>
+        <v>17.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.13</v>
+        <v>3.41</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.81</v>
+        <v>2.38</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>45.2</v>
+        <v>4.52</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41505.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.75</v>
+        <v>4.07</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.28</v>
+        <v>3.33</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>57.14</v>
+        <v>5.71</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41</v>
+        <v>4.1</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>51.92</v>
+        <v>5.19</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41505.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.42</v>
+        <v>2.34</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.45</v>
+        <v>1.74</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>50.99</v>
+        <v>5.1</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>41.81</v>
+        <v>4.18</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>71.29000000000001</v>
+        <v>7.13</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.79</v>
+        <v>1.88</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.46</v>
+        <v>2.05</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.16</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>271.95</v>
+        <v>27.2</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>51.31</v>
+        <v>5.13</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34.59</v>
+        <v>3.46</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>34.76</v>
+        <v>3.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.51</v>
+        <v>2.15</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>64.8</v>
+        <v>6.48</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41505.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.4</v>
+        <v>2.44</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.89</v>
+        <v>4.49</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>156.35</v>
+        <v>15.64</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.16</v>
+        <v>3.02</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.28</v>
+        <v>2.03</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>40.93</v>
+        <v>4.09</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41505.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.23</v>
+        <v>2.82</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>181.52</v>
+        <v>18.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>34.69</v>
+        <v>3.47</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.37</v>
+        <v>2.34</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.55</v>
+        <v>2.36</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.55</v>
+        <v>1.45</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.12</v>
+        <v>4.41</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41505.34027777778</v>
+        <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.18</v>
-      </c>
       <c r="H2" s="4" t="n">
-        <v>3.58</v>
+        <v>4.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.84</v>
+        <v>2.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="L2" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.05</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17.35</v>
+        <v>22.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.29</v>
+        <v>4.18</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.13</v>
+        <v>2.76</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.22</v>
+        <v>4.26</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41505.34722222222</v>
+        <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.24</v>
+        <v>19.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.04</v>
+        <v>3.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.98</v>
+        <v>4.77</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41505.35416666666</v>
+        <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.61</v>
+        <v>1.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.18</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.33</v>
+        <v>3.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.47</v>
+        <v>1.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.32</v>
+        <v>5.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.49</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.48</v>
+        <v>1.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.09</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.6</v>
+        <v>18.72</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.37</v>
+        <v>3.58</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.18</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.89</v>
+        <v>2.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.25</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.08</v>
+        <v>2.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.16</v>
+        <v>4.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.66</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41505.36111111111</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.31</v>
+        <v>1.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.04</v>
+        <v>3.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.1</v>
+        <v>2.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.71</v>
+        <v>4.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.8</v>
+        <v>1.92</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.81</v>
-      </c>
       <c r="P5" s="4" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.85</v>
+        <v>18.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.06</v>
+        <v>3.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.31</v>
+        <v>2.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.09</v>
+        <v>4.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.09</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41505.36805555555</v>
+        <v>44781.90971064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.55</v>
+        <v>12.97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.15</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.87</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.38</v>
+        <v>28.17</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.75</v>
+        <v>22.99</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.22</v>
+        <v>10.21</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.95</v>
+        <v>40.9</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.88</v>
+        <v>15.71</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.83</v>
+        <v>6.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.23</v>
+        <v>10.22</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.36</v>
+        <v>11.32</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.44</v>
+        <v>11.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.39</v>
+        <v>3.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.22</v>
+        <v>10.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.73</v>
+        <v>14.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.03</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>17.81</v>
+        <v>147.19</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.41</v>
+        <v>28.43</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.12</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.29</v>
+        <v>19.03</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.2</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.58</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.38</v>
+        <v>19.63</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.99</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.88</v>
+        <v>7.38</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.04</v>
+        <v>8.67</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.43</v>
+        <v>11.83</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.52</v>
+        <v>37.14</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.63</v>
+        <v>5.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41505.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41505.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41505.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41505.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41505.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.53</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>50.26</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>187.25</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.76</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>45.68</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.75</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.74</v>
+        <v>37.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.25</v>
+        <v>52.49</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.7</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.79</v>
+        <v>37.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.17</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.77</v>
+        <v>47.74</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.54</v>
+        <v>35.42</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.05</v>
+        <v>50.48</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.72</v>
+        <v>187.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.58</v>
+        <v>35.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.88</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.58</v>
+        <v>45.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.9</v>
+        <v>49.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.45</v>
+        <v>44.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>12.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.38</v>
+        <v>37.377</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>30.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.49</v>
+        <v>52.487</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.073</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.42</v>
+        <v>13.422</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.96</v>
+        <v>14.957</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.64</v>
+        <v>15.641</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.348</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.1</v>
+        <v>19.096</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.62</v>
+        <v>11.622</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.562</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.091</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.7</v>
+        <v>198.697</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.88</v>
+        <v>37.877</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.17</v>
+        <v>25.171</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.09</v>
+        <v>13.088</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.352</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.52</v>
+        <v>25.524</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.04</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.958</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.68</v>
+        <v>11.678</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.53</v>
+        <v>15.529</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.74</v>
+        <v>47.736</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.93</v>
+        <v>6.933</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
@@ -863,108 +863,108 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.81</v>
+        <v>11.808</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.319</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.42</v>
+        <v>35.418</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.83</v>
+        <v>28.832</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.48</v>
+        <v>50.478</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.67</v>
+        <v>8.669</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.797</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.21</v>
+        <v>14.211</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.9</v>
+        <v>14.904</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.1</v>
+        <v>18.101</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.91</v>
+        <v>10.914</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.25</v>
+        <v>187.249</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>35.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.88</v>
+        <v>23.878</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.48</v>
+        <v>12.475</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.076</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>24.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.34</v>
+        <v>9.340999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.963</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.82</v>
+        <v>14.818</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.8</v>
+        <v>45.803</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.58</v>
+        <v>6.581</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>15.85</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,106 +964,210 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.9027662037</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.57</v>
+        <v>11.567</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.087</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.42</v>
+        <v>34.421</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.09</v>
+        <v>28.094</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.01</v>
+        <v>49.011</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.465</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.499</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.821</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.52</v>
+        <v>14.524</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.61</v>
+        <v>17.608</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.54</v>
+        <v>10.541</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.53</v>
+        <v>181.525</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.72</v>
+        <v>34.715</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.24</v>
+        <v>23.241</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.16</v>
+        <v>12.164</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.93</v>
+        <v>1.933</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.65</v>
+        <v>23.652</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.026</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.45</v>
+        <v>14.446</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.46</v>
+        <v>44.459</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_73.xlsx
+++ b/DATA_goal/Junction_Flooding_73.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,210 +964,106 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.567</v>
+        <v>11.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.087</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.421</v>
+        <v>34.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.094</v>
+        <v>28.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.477</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.011</v>
+        <v>49.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.465</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.499</v>
+        <v>12.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.821</v>
+        <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.524</v>
+        <v>14.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.986</v>
+        <v>3.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.608</v>
+        <v>17.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.541</v>
+        <v>10.54</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.525</v>
+        <v>181.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.715</v>
+        <v>34.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.241</v>
+        <v>23.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.164</v>
+        <v>12.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.933</v>
+        <v>1.93</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.652</v>
+        <v>23.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.026</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.446</v>
+        <v>14.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.459</v>
+        <v>44.46</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.318</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
